--- a/SPRINTS/SPRINT1/archivos/DIAGRAMA BURNDOWN SGAL.xlsx
+++ b/SPRINTS/SPRINT1/archivos/DIAGRAMA BURNDOWN SGAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egobr\Dropbox\21-Direccion_Gestion_Proyectos\1_Gestion_Alumnos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{876EF58C-F256-4CEE-811B-DF0B651C77EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F765F36-B888-4714-BB12-10F465703FD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="262" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -358,251 +358,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1328,6 +1083,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1958,7 +1714,119 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5852</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>51030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>54106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F994703C-AD4C-4949-BA13-F138AB48E67A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="257898" y="144815"/>
+          <a:ext cx="532030" cy="636122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.92237</cdr:x>
+      <cdr:y>0.0028</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.07472</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB35342D-C556-42A4-9798-617B0AF72E8D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8287183" y="12113"/>
+          <a:ext cx="697522" cy="310662"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SGAL</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2286,12 +2154,12 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="2" customWidth="1"/>
     <col min="4" max="7" width="7.77734375" style="2" customWidth="1"/>
@@ -2445,7 +2313,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6">
-        <f t="shared" ref="N30:N33" si="0">SUM(D31:M31)</f>
+        <f t="shared" ref="N31:N33" si="0">SUM(D31:M31)</f>
         <v>3</v>
       </c>
       <c r="O31" s="5"/>
@@ -2596,43 +2464,43 @@
         <v>26</v>
       </c>
       <c r="D36" s="17">
-        <f>C36-($C$36/10)</f>
+        <f t="shared" ref="D36:M36" si="2">C36-($C$36/10)</f>
         <v>23.4</v>
       </c>
       <c r="E36" s="17">
-        <f>D36-($C$36/10)</f>
+        <f t="shared" si="2"/>
         <v>20.799999999999997</v>
       </c>
       <c r="F36" s="17">
-        <f>E36-($C$36/10)</f>
+        <f t="shared" si="2"/>
         <v>18.199999999999996</v>
       </c>
       <c r="G36" s="17">
-        <f>F36-($C$36/10)</f>
+        <f t="shared" si="2"/>
         <v>15.599999999999996</v>
       </c>
       <c r="H36" s="17">
-        <f>G36-($C$36/10)</f>
+        <f t="shared" si="2"/>
         <v>12.999999999999996</v>
       </c>
       <c r="I36" s="17">
-        <f>H36-($C$36/10)</f>
+        <f t="shared" si="2"/>
         <v>10.399999999999997</v>
       </c>
       <c r="J36" s="17">
-        <f>I36-($C$36/10)</f>
+        <f t="shared" si="2"/>
         <v>7.7999999999999972</v>
       </c>
       <c r="K36" s="17">
-        <f>J36-($C$36/10)</f>
+        <f t="shared" si="2"/>
         <v>5.1999999999999975</v>
       </c>
       <c r="L36" s="17">
-        <f>K36-($C$36/10)</f>
+        <f t="shared" si="2"/>
         <v>2.5999999999999974</v>
       </c>
       <c r="M36" s="17">
-        <f>L36-($C$36/10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N36" s="20">
@@ -2648,39 +2516,39 @@
         <v/>
       </c>
       <c r="E37" s="15" t="str">
-        <f t="shared" ref="E37:M37" si="2">IF(E35&lt;=E36,"OK","")</f>
+        <f t="shared" ref="E37:M37" si="3">IF(E35&lt;=E36,"OK","")</f>
         <v/>
       </c>
       <c r="F37" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G37" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H37" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I37" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J37" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="K37" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L37" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M37" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2696,60 +2564,60 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="greaterThanOrEqual">
       <formula>$N$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThanOrEqual">
       <formula>$J$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThanOrEqual">
       <formula>$E$36</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThanOrEqual">
       <formula>$E$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThanOrEqual">
       <formula>$D$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThanOrEqual">
       <formula>$F$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
       <formula>$G$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThanOrEqual">
       <formula>$H$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThanOrEqual">
       <formula>$I$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
       <formula>$K$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>$L$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>$M$36</formula>
     </cfRule>
   </conditionalFormatting>
